--- a/FinViz_Parser/Finviz_Upgrades/Finviz_Upgrades.xlsx
+++ b/FinViz_Parser/Finviz_Upgrades/Finviz_Upgrades.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="491">
   <si>
     <t>Stock Additions</t>
   </si>
@@ -60,6 +60,99 @@
     <t>Industry</t>
   </si>
   <si>
+    <t>ARCT</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Biotechnology</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>Basic Materials</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas Drilling &amp; Exploration</t>
+  </si>
+  <si>
+    <t>FBP</t>
+  </si>
+  <si>
+    <t>Financial</t>
+  </si>
+  <si>
+    <t>Foreign Regional Banks</t>
+  </si>
+  <si>
+    <t>IPG</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Advertising Agencies</t>
+  </si>
+  <si>
+    <t>VIAB</t>
+  </si>
+  <si>
+    <t>Entertainment - Diversified</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>RRC</t>
+  </si>
+  <si>
+    <t>Independent Oil &amp; Gas</t>
+  </si>
+  <si>
+    <t>MTW</t>
+  </si>
+  <si>
+    <t>Industrial Goods</t>
+  </si>
+  <si>
+    <t>Farm &amp; Construction Machinery</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>RDC</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>Consumer Goods</t>
+  </si>
+  <si>
+    <t>Textile - Apparel Clothing</t>
+  </si>
+  <si>
+    <t>SNHY</t>
+  </si>
+  <si>
+    <t>Industrial Equipment &amp; Components</t>
+  </si>
+  <si>
+    <t>CPRT</t>
+  </si>
+  <si>
+    <t>Auto Dealerships</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>% Change Since Inception</t>
+  </si>
+  <si>
     <t>DIOD</t>
   </si>
   <si>
@@ -69,12 +162,12 @@
     <t>Semiconductor - Integrated Circuits</t>
   </si>
   <si>
+    <t>9/19/2018</t>
+  </si>
+  <si>
     <t>SIR</t>
   </si>
   <si>
-    <t>Financial</t>
-  </si>
-  <si>
     <t>REIT - Office</t>
   </si>
   <si>
@@ -102,13 +195,7 @@
     <t>Communication Equipment</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>% Change Since Inception</t>
-  </si>
-  <si>
-    <t>9/19/2018</t>
+    <t>9/20/2018</t>
   </si>
   <si>
     <t>Stock/Date</t>
@@ -117,21 +204,78 @@
     <t>33.10 (1.24%)</t>
   </si>
   <si>
+    <t>34.00 (1.89%)</t>
+  </si>
+  <si>
     <t>20.20 (-1.56%)</t>
   </si>
   <si>
+    <t>20.75 (2.67%)</t>
+  </si>
+  <si>
     <t>55.57 (3.37%)</t>
   </si>
   <si>
+    <t>56.01 (0.42%)</t>
+  </si>
+  <si>
     <t>23.07 (0.59%)</t>
   </si>
   <si>
+    <t>23.70 (2.33%)</t>
+  </si>
+  <si>
     <t>7.84 (3.84%)</t>
   </si>
   <si>
+    <t>8.02 (0.88%)</t>
+  </si>
+  <si>
     <t>29.35 (2.66%)</t>
   </si>
   <si>
+    <t>29.53 (1.15%)</t>
+  </si>
+  <si>
+    <t>9.80 (4.37%)</t>
+  </si>
+  <si>
+    <t>18.39 (2.91%)</t>
+  </si>
+  <si>
+    <t>9.03 (4.81%)</t>
+  </si>
+  <si>
+    <t>22.68 (1.43%)</t>
+  </si>
+  <si>
+    <t>31.77 (3.38%)</t>
+  </si>
+  <si>
+    <t>67.10 (1.62%)</t>
+  </si>
+  <si>
+    <t>17.76 (3.32%)</t>
+  </si>
+  <si>
+    <t>26.46 (8.00%)</t>
+  </si>
+  <si>
+    <t>155.66 (1.90%)</t>
+  </si>
+  <si>
+    <t>17.32 (3.43%)</t>
+  </si>
+  <si>
+    <t>135.87 (1.30%)</t>
+  </si>
+  <si>
+    <t>56.44 (2.39%)</t>
+  </si>
+  <si>
+    <t>56.05 (0.85%)</t>
+  </si>
+  <si>
     <t>0.98</t>
   </si>
   <si>
@@ -150,6 +294,45 @@
     <t>0.86</t>
   </si>
   <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>1.92</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>1.53</t>
+  </si>
+  <si>
+    <t>1.36</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>1.58</t>
+  </si>
+  <si>
+    <t>1.38</t>
+  </si>
+  <si>
+    <t>1.83</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>1.68</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
     <t>49.68M</t>
   </si>
   <si>
@@ -168,42 +351,195 @@
     <t>344.18M</t>
   </si>
   <si>
+    <t>9.93M</t>
+  </si>
+  <si>
+    <t>137.43M</t>
+  </si>
+  <si>
+    <t>216.67M</t>
+  </si>
+  <si>
+    <t>383.45M</t>
+  </si>
+  <si>
+    <t>412.05M</t>
+  </si>
+  <si>
+    <t>108.01M</t>
+  </si>
+  <si>
+    <t>247.71M</t>
+  </si>
+  <si>
+    <t>35.53M</t>
+  </si>
+  <si>
+    <t>596.95M</t>
+  </si>
+  <si>
+    <t>128.17M</t>
+  </si>
+  <si>
+    <t>82.07M</t>
+  </si>
+  <si>
+    <t>31.21M</t>
+  </si>
+  <si>
+    <t>236.58M</t>
+  </si>
+  <si>
     <t>321.48K</t>
   </si>
   <si>
+    <t>324.39K</t>
+  </si>
+  <si>
     <t>434.39K</t>
   </si>
   <si>
+    <t>455.79K</t>
+  </si>
+  <si>
     <t>2.42M</t>
   </si>
   <si>
+    <t>2.48M</t>
+  </si>
+  <si>
     <t>28.44K</t>
   </si>
   <si>
+    <t>28.70K</t>
+  </si>
+  <si>
     <t>1.58M</t>
   </si>
   <si>
+    <t>1.64M</t>
+  </si>
+  <si>
     <t>4.26M</t>
   </si>
   <si>
+    <t>4.29M</t>
+  </si>
+  <si>
+    <t>22.88K</t>
+  </si>
+  <si>
+    <t>1.44M</t>
+  </si>
+  <si>
+    <t>1.61M</t>
+  </si>
+  <si>
+    <t>3.52M</t>
+  </si>
+  <si>
+    <t>2.83M</t>
+  </si>
+  <si>
+    <t>1.21M</t>
+  </si>
+  <si>
+    <t>5.48M</t>
+  </si>
+  <si>
+    <t>431.92K</t>
+  </si>
+  <si>
+    <t>4.46M</t>
+  </si>
+  <si>
+    <t>2.56M</t>
+  </si>
+  <si>
+    <t>944.23K</t>
+  </si>
+  <si>
+    <t>108.79K</t>
+  </si>
+  <si>
+    <t>2.45M</t>
+  </si>
+  <si>
     <t>294,696</t>
   </si>
   <si>
+    <t>117,725</t>
+  </si>
+  <si>
     <t>703,325</t>
   </si>
   <si>
+    <t>723,260</t>
+  </si>
+  <si>
     <t>2,758,241</t>
   </si>
   <si>
+    <t>1,828,963</t>
+  </si>
+  <si>
     <t>34,884</t>
   </si>
   <si>
+    <t>57,623</t>
+  </si>
+  <si>
     <t>3,428,162</t>
   </si>
   <si>
+    <t>1,615,710</t>
+  </si>
+  <si>
     <t>2,703,736</t>
   </si>
   <si>
+    <t>1,532,519</t>
+  </si>
+  <si>
+    <t>99,740</t>
+  </si>
+  <si>
+    <t>657,152</t>
+  </si>
+  <si>
+    <t>6,459,185</t>
+  </si>
+  <si>
+    <t>1,201,765</t>
+  </si>
+  <si>
+    <t>3,028,978</t>
+  </si>
+  <si>
+    <t>552,756</t>
+  </si>
+  <si>
+    <t>6,881,602</t>
+  </si>
+  <si>
+    <t>698,731</t>
+  </si>
+  <si>
+    <t>4,801,317</t>
+  </si>
+  <si>
+    <t>4,496,448</t>
+  </si>
+  <si>
+    <t>386,822</t>
+  </si>
+  <si>
+    <t>160,091</t>
+  </si>
+  <si>
+    <t>3,773,695</t>
+  </si>
+  <si>
     <t>44.00</t>
   </si>
   <si>
@@ -222,96 +558,417 @@
     <t>26.79</t>
   </si>
   <si>
+    <t>18.50</t>
+  </si>
+  <si>
+    <t>15.87</t>
+  </si>
+  <si>
+    <t>9.54</t>
+  </si>
+  <si>
+    <t>23.64</t>
+  </si>
+  <si>
+    <t>34.57</t>
+  </si>
+  <si>
+    <t>67.57</t>
+  </si>
+  <si>
+    <t>21.19</t>
+  </si>
+  <si>
+    <t>30.33</t>
+  </si>
+  <si>
+    <t>166.52</t>
+  </si>
+  <si>
+    <t>16.00</t>
+  </si>
+  <si>
+    <t>137.44</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>55.33</t>
+  </si>
+  <si>
     <t>-15.81%</t>
   </si>
   <si>
+    <t>-13.51%</t>
+  </si>
+  <si>
     <t>-23.08%</t>
   </si>
   <si>
+    <t>-20.98%</t>
+  </si>
+  <si>
     <t>-16.39%</t>
   </si>
   <si>
+    <t>-15.72%</t>
+  </si>
+  <si>
     <t>-10.89%</t>
   </si>
   <si>
+    <t>-8.43%</t>
+  </si>
+  <si>
     <t>-21.60%</t>
   </si>
   <si>
+    <t>-19.80%</t>
+  </si>
+  <si>
     <t>-2.00%</t>
   </si>
   <si>
+    <t>-1.39%</t>
+  </si>
+  <si>
+    <t>-35.48%</t>
+  </si>
+  <si>
+    <t>-16.10%</t>
+  </si>
+  <si>
+    <t>-1.09%</t>
+  </si>
+  <si>
+    <t>-12.80%</t>
+  </si>
+  <si>
+    <t>-10.63%</t>
+  </si>
+  <si>
+    <t>-10.56%</t>
+  </si>
+  <si>
+    <t>-14.00%</t>
+  </si>
+  <si>
+    <t>-39.90%</t>
+  </si>
+  <si>
+    <t>-10.15%</t>
+  </si>
+  <si>
+    <t>-1.28%</t>
+  </si>
+  <si>
+    <t>-8.07%</t>
+  </si>
+  <si>
+    <t>-20.32%</t>
+  </si>
+  <si>
+    <t>-16.44%</t>
+  </si>
+  <si>
     <t>26.85%</t>
   </si>
   <si>
+    <t>30.32%</t>
+  </si>
+  <si>
     <t>12.85%</t>
   </si>
   <si>
+    <t>15.92%</t>
+  </si>
+  <si>
     <t>34.32%</t>
   </si>
   <si>
+    <t>35.40%</t>
+  </si>
+  <si>
     <t>13.00%</t>
   </si>
   <si>
+    <t>16.11%</t>
+  </si>
+  <si>
     <t>23.27%</t>
   </si>
   <si>
+    <t>26.10%</t>
+  </si>
+  <si>
     <t>24.31%</t>
   </si>
   <si>
+    <t>25.10%</t>
+  </si>
+  <si>
+    <t>105.02%</t>
+  </si>
+  <si>
+    <t>41.46%</t>
+  </si>
+  <si>
+    <t>101.67%</t>
+  </si>
+  <si>
+    <t>23.93%</t>
+  </si>
+  <si>
+    <t>43.56%</t>
+  </si>
+  <si>
+    <t>36.20%</t>
+  </si>
+  <si>
+    <t>48.87%</t>
+  </si>
+  <si>
+    <t>24.93%</t>
+  </si>
+  <si>
+    <t>25.92%</t>
+  </si>
+  <si>
+    <t>58.34%</t>
+  </si>
+  <si>
+    <t>63.19%</t>
+  </si>
+  <si>
+    <t>24.21%</t>
+  </si>
+  <si>
+    <t>68.32%</t>
+  </si>
+  <si>
     <t>-8.01%</t>
   </si>
   <si>
+    <t>-4.91%</t>
+  </si>
+  <si>
     <t>-2.44%</t>
   </si>
   <si>
+    <t>0.50%</t>
+  </si>
+  <si>
     <t>-2.19%</t>
   </si>
   <si>
+    <t>-1.17%</t>
+  </si>
+  <si>
     <t>-3.57%</t>
   </si>
   <si>
+    <t>-0.66%</t>
+  </si>
+  <si>
     <t>16.10%</t>
   </si>
   <si>
+    <t>17.86%</t>
+  </si>
+  <si>
     <t>4.18%</t>
   </si>
   <si>
+    <t>4.67%</t>
+  </si>
+  <si>
+    <t>18.31%</t>
+  </si>
+  <si>
+    <t>6.69%</t>
+  </si>
+  <si>
+    <t>4.08%</t>
+  </si>
+  <si>
+    <t>5.90%</t>
+  </si>
+  <si>
+    <t>2.95%</t>
+  </si>
+  <si>
+    <t>11.46%</t>
+  </si>
+  <si>
+    <t>14.91%</t>
+  </si>
+  <si>
+    <t>9.35%</t>
+  </si>
+  <si>
+    <t>16.48%</t>
+  </si>
+  <si>
+    <t>1.83%</t>
+  </si>
+  <si>
+    <t>10.79%</t>
+  </si>
+  <si>
+    <t>-12.60%</t>
+  </si>
+  <si>
     <t>-9.80%</t>
   </si>
   <si>
+    <t>-7.22%</t>
+  </si>
+  <si>
     <t>-4.95%</t>
   </si>
   <si>
+    <t>-2.13%</t>
+  </si>
+  <si>
     <t>-6.05%</t>
   </si>
   <si>
+    <t>-5.13%</t>
+  </si>
+  <si>
     <t>-5.37%</t>
   </si>
   <si>
+    <t>-2.62%</t>
+  </si>
+  <si>
     <t>10.57%</t>
   </si>
   <si>
+    <t>13.12%</t>
+  </si>
+  <si>
     <t>6.07%</t>
   </si>
   <si>
+    <t>6.67%</t>
+  </si>
+  <si>
+    <t>20.41%</t>
+  </si>
+  <si>
+    <t>2.12%</t>
+  </si>
+  <si>
+    <t>6.80%</t>
+  </si>
+  <si>
+    <t>0.58%</t>
+  </si>
+  <si>
+    <t>7.33%</t>
+  </si>
+  <si>
+    <t>6.33%</t>
+  </si>
+  <si>
+    <t>12.55%</t>
+  </si>
+  <si>
+    <t>9.51%</t>
+  </si>
+  <si>
+    <t>11.05%</t>
+  </si>
+  <si>
+    <t>20.09%</t>
+  </si>
+  <si>
+    <t>1.66%</t>
+  </si>
+  <si>
+    <t>12.92%</t>
+  </si>
+  <si>
+    <t>-8.16%</t>
+  </si>
+  <si>
     <t>1.59%</t>
   </si>
   <si>
+    <t>4.30%</t>
+  </si>
+  <si>
     <t>-5.15%</t>
   </si>
   <si>
+    <t>-2.45%</t>
+  </si>
+  <si>
     <t>-3.09%</t>
   </si>
   <si>
+    <t>-2.37%</t>
+  </si>
+  <si>
     <t>-1.47%</t>
   </si>
   <si>
+    <t>1.22%</t>
+  </si>
+  <si>
     <t>-0.47%</t>
   </si>
   <si>
+    <t>1.81%</t>
+  </si>
+  <si>
     <t>9.07%</t>
   </si>
   <si>
+    <t>9.74%</t>
+  </si>
+  <si>
+    <t>34.64%</t>
+  </si>
+  <si>
+    <t>3.61%</t>
+  </si>
+  <si>
+    <t>29.12%</t>
+  </si>
+  <si>
+    <t>0.24%</t>
+  </si>
+  <si>
+    <t>4.37%</t>
+  </si>
+  <si>
+    <t>1.99%</t>
+  </si>
+  <si>
+    <t>15.16%</t>
+  </si>
+  <si>
+    <t>-10.44%</t>
+  </si>
+  <si>
+    <t>4.27%</t>
+  </si>
+  <si>
+    <t>19.80%</t>
+  </si>
+  <si>
+    <t>14.63%</t>
+  </si>
+  <si>
+    <t>4.78%</t>
+  </si>
+  <si>
+    <t>6.59%</t>
+  </si>
+  <si>
     <t>2.40%</t>
   </si>
   <si>
@@ -330,6 +987,42 @@
     <t>3.50%</t>
   </si>
   <si>
+    <t>-83.90%</t>
+  </si>
+  <si>
+    <t>-5.60%</t>
+  </si>
+  <si>
+    <t>12.50%</t>
+  </si>
+  <si>
+    <t>15.60%</t>
+  </si>
+  <si>
+    <t>41.90%</t>
+  </si>
+  <si>
+    <t>2.20%</t>
+  </si>
+  <si>
+    <t>2.50%</t>
+  </si>
+  <si>
+    <t>6.10%</t>
+  </si>
+  <si>
+    <t>-9.40%</t>
+  </si>
+  <si>
+    <t>3.40%</t>
+  </si>
+  <si>
+    <t>8.10%</t>
+  </si>
+  <si>
+    <t>21.80%</t>
+  </si>
+  <si>
     <t>2.50</t>
   </si>
   <si>
@@ -345,6 +1038,42 @@
     <t>2.03</t>
   </si>
   <si>
+    <t>-1.98</t>
+  </si>
+  <si>
+    <t>-0.99</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>1.81</t>
+  </si>
+  <si>
+    <t>4.40</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>12.90</t>
+  </si>
+  <si>
+    <t>-3.21</t>
+  </si>
+  <si>
+    <t>7.27</t>
+  </si>
+  <si>
+    <t>2.27</t>
+  </si>
+  <si>
+    <t>2.16</t>
+  </si>
+  <si>
     <t>15.10%</t>
   </si>
   <si>
@@ -363,6 +1092,45 @@
     <t>-8.00%</t>
   </si>
   <si>
+    <t>-36.30%</t>
+  </si>
+  <si>
+    <t>-32.70%</t>
+  </si>
+  <si>
+    <t>5.60%</t>
+  </si>
+  <si>
+    <t>9.40%</t>
+  </si>
+  <si>
+    <t>-3.80%</t>
+  </si>
+  <si>
+    <t>30.10%</t>
+  </si>
+  <si>
+    <t>-35.30%</t>
+  </si>
+  <si>
+    <t>25.50%</t>
+  </si>
+  <si>
+    <t>23.70%</t>
+  </si>
+  <si>
+    <t>-24.60%</t>
+  </si>
+  <si>
+    <t>3.20%</t>
+  </si>
+  <si>
+    <t>52.50%</t>
+  </si>
+  <si>
+    <t>27.90%</t>
+  </si>
+  <si>
     <t>87.00%</t>
   </si>
   <si>
@@ -381,6 +1149,45 @@
     <t>-28.90%</t>
   </si>
   <si>
+    <t>-125.20%</t>
+  </si>
+  <si>
+    <t>-533.70%</t>
+  </si>
+  <si>
+    <t>11.20%</t>
+  </si>
+  <si>
+    <t>39.10%</t>
+  </si>
+  <si>
+    <t>-24.40%</t>
+  </si>
+  <si>
+    <t>106.40%</t>
+  </si>
+  <si>
+    <t>-133.40%</t>
+  </si>
+  <si>
+    <t>1840.00%</t>
+  </si>
+  <si>
+    <t>109.70%</t>
+  </si>
+  <si>
+    <t>-165.80%</t>
+  </si>
+  <si>
+    <t>81.40%</t>
+  </si>
+  <si>
+    <t>-20.10%</t>
+  </si>
+  <si>
+    <t>38.40%</t>
+  </si>
+  <si>
     <t>11.90%</t>
   </si>
   <si>
@@ -399,76 +1206,310 @@
     <t>34.30%</t>
   </si>
   <si>
+    <t>-20.00%</t>
+  </si>
+  <si>
+    <t>-51.30%</t>
+  </si>
+  <si>
+    <t>15.50%</t>
+  </si>
+  <si>
+    <t>7.80%</t>
+  </si>
+  <si>
+    <t>1.40%</t>
+  </si>
+  <si>
+    <t>-17.40%</t>
+  </si>
+  <si>
+    <t>-17.50%</t>
+  </si>
+  <si>
+    <t>-14.60%</t>
+  </si>
+  <si>
+    <t>-9.30%</t>
+  </si>
+  <si>
+    <t>-19.10%</t>
+  </si>
+  <si>
+    <t>-10.30%</t>
+  </si>
+  <si>
+    <t>19.10%</t>
+  </si>
+  <si>
     <t>22.47</t>
   </si>
   <si>
+    <t>22.93</t>
+  </si>
+  <si>
     <t>23.40</t>
   </si>
   <si>
+    <t>23.04</t>
+  </si>
+  <si>
     <t>17.89</t>
   </si>
   <si>
+    <t>18.56</t>
+  </si>
+  <si>
     <t>15.44</t>
   </si>
   <si>
+    <t>15.60</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>23.04</t>
+    <t>23.53</t>
+  </si>
+  <si>
+    <t>24.91</t>
+  </si>
+  <si>
+    <t>15.76</t>
+  </si>
+  <si>
+    <t>6.79</t>
+  </si>
+  <si>
+    <t>10.04</t>
+  </si>
+  <si>
+    <t>16.74</t>
+  </si>
+  <si>
+    <t>25.47</t>
+  </si>
+  <si>
+    <t>47.89</t>
+  </si>
+  <si>
+    <t>34.35</t>
   </si>
   <si>
     <t>13.08</t>
   </si>
   <si>
+    <t>13.35</t>
+  </si>
+  <si>
     <t>30.18</t>
   </si>
   <si>
+    <t>29.72</t>
+  </si>
+  <si>
     <t>13.42</t>
   </si>
   <si>
+    <t>13.92</t>
+  </si>
+  <si>
     <t>11.55</t>
   </si>
   <si>
+    <t>11.67</t>
+  </si>
+  <si>
     <t>14.06</t>
   </si>
   <si>
+    <t>14.36</t>
+  </si>
+  <si>
+    <t>13.43</t>
+  </si>
+  <si>
+    <t>12.35</t>
+  </si>
+  <si>
+    <t>6.99</t>
+  </si>
+  <si>
+    <t>58.43</t>
+  </si>
+  <si>
+    <t>17.16</t>
+  </si>
+  <si>
+    <t>19.71</t>
+  </si>
+  <si>
+    <t>11.84</t>
+  </si>
+  <si>
+    <t>18.45</t>
+  </si>
+  <si>
+    <t>24.34</t>
+  </si>
+  <si>
+    <t>25.68</t>
+  </si>
+  <si>
     <t>1.43</t>
   </si>
   <si>
+    <t>1.46</t>
+  </si>
+  <si>
     <t>3.90</t>
   </si>
   <si>
+    <t>3.84</t>
+  </si>
+  <si>
     <t>5.15</t>
   </si>
   <si>
+    <t>5.34</t>
+  </si>
+  <si>
     <t>3.88</t>
   </si>
   <si>
+    <t>3.92</t>
+  </si>
+  <si>
     <t>0.53</t>
   </si>
   <si>
+    <t>0.56</t>
+  </si>
+  <si>
     <t>2.06</t>
   </si>
   <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>7.17</t>
+  </si>
+  <si>
+    <t>3.11</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>3.07</t>
+  </si>
+  <si>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>1.78</t>
+  </si>
+  <si>
+    <t>1.77</t>
+  </si>
+  <si>
+    <t>4.24</t>
+  </si>
+  <si>
+    <t>7.58</t>
+  </si>
+  <si>
     <t>12.72</t>
   </si>
   <si>
+    <t>12.98</t>
+  </si>
+  <si>
     <t>170.83</t>
   </si>
   <si>
+    <t>168.25</t>
+  </si>
+  <si>
     <t>10.32</t>
   </si>
   <si>
+    <t>10.71</t>
+  </si>
+  <si>
     <t>18.61</t>
   </si>
   <si>
+    <t>18.79</t>
+  </si>
+  <si>
     <t>20.01</t>
   </si>
   <si>
+    <t>20.44</t>
+  </si>
+  <si>
+    <t>8.48</t>
+  </si>
+  <si>
+    <t>7.52</t>
+  </si>
+  <si>
+    <t>299.79</t>
+  </si>
+  <si>
+    <t>8.24</t>
+  </si>
+  <si>
+    <t>65.75</t>
+  </si>
+  <si>
+    <t>20.12</t>
+  </si>
+  <si>
+    <t>90.07</t>
+  </si>
+  <si>
+    <t>44.69</t>
+  </si>
+  <si>
     <t>1.57%</t>
   </si>
   <si>
+    <t>1.55%</t>
+  </si>
+  <si>
     <t>2.52%</t>
+  </si>
+  <si>
+    <t>2.47%</t>
+  </si>
+  <si>
+    <t>3.76%</t>
+  </si>
+  <si>
+    <t>2.60%</t>
+  </si>
+  <si>
+    <t>0.47%</t>
+  </si>
+  <si>
+    <t>1.31%</t>
+  </si>
+  <si>
+    <t>known_bug</t>
+  </si>
+  <si>
+    <t>1.86%</t>
+  </si>
+  <si>
+    <t>0.65%</t>
   </si>
 </sst>
 </file>
@@ -476,7 +1517,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="109">
+  <fonts count="110">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1012,6 +2053,7 @@
     <font>
       <color rgb="00FF0000"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -1033,7 +2075,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1144,6 +2186,7 @@
     <xf borderId="0" fillId="0" fontId="106" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="107" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="108" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="109" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1453,396 +2496,480 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="107" t="n">
-        <v>33.1</v>
+      <c r="B4" s="110" t="n">
+        <v>9.800000000000001</v>
       </c>
       <c r="C4" s="108" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="D4" s="107" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E4" s="107" t="s">
+        <v>4.37</v>
+      </c>
+      <c r="D4" s="109" t="n">
+        <v>78.26000000000001</v>
+      </c>
+      <c r="E4" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="107" t="s">
+      <c r="F4" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="107" t="n"/>
-      <c r="H4" s="107" t="n"/>
+      <c r="G4" s="110" t="n"/>
+      <c r="H4" s="110" t="n"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="107" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="C5" s="109" t="n">
-        <v>-1.56</v>
-      </c>
-      <c r="D5" s="107" t="n">
-        <v>43.55</v>
-      </c>
-      <c r="E5" s="107" t="s">
+      <c r="B5" s="110" t="n">
+        <v>18.39</v>
+      </c>
+      <c r="C5" s="108" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="D5" s="110" t="n">
+        <v>60.72</v>
+      </c>
+      <c r="E5" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="107" t="s">
+      <c r="F5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="107" t="n"/>
-      <c r="H5" s="107" t="n"/>
+      <c r="G5" s="110" t="n"/>
+      <c r="H5" s="110" t="n"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="107" t="n">
-        <v>55.57</v>
+      <c r="B6" s="110" t="n">
+        <v>9.029999999999999</v>
       </c>
       <c r="C6" s="108" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="D6" s="107" t="n">
-        <v>42.81</v>
-      </c>
-      <c r="E6" s="107" t="s">
+        <v>4.81</v>
+      </c>
+      <c r="D6" s="110" t="n">
+        <v>63.94</v>
+      </c>
+      <c r="E6" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="110" t="n"/>
+      <c r="H6" s="110" t="n"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="110" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="C7" s="108" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="D7" s="110" t="n">
+        <v>52</v>
+      </c>
+      <c r="E7" s="110" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="110" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="110" t="n"/>
+      <c r="H7" s="110" t="n"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="110" t="n">
+        <v>31.77</v>
+      </c>
+      <c r="C8" s="108" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="D8" s="110" t="n">
+        <v>69.45</v>
+      </c>
+      <c r="E8" s="110" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="110" t="n"/>
+      <c r="H8" s="110" t="n"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="110" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="C9" s="108" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D9" s="110" t="n">
+        <v>63.83</v>
+      </c>
+      <c r="E9" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="107" t="n"/>
-      <c r="H6" s="107" t="n"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="107" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="107" t="n">
-        <v>23.07</v>
-      </c>
-      <c r="C7" s="108" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="D7" s="107" t="n">
-        <v>37.91</v>
-      </c>
-      <c r="E7" s="107" t="s">
+      <c r="F9" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="110" t="n"/>
+      <c r="H9" s="110" t="n"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="110" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="110" t="n">
+        <v>17.76</v>
+      </c>
+      <c r="C10" s="108" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="D10" s="110" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="E10" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="107" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="107" t="n"/>
-      <c r="H7" s="107" t="n"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="107" t="s">
+      <c r="F10" s="110" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="110" t="n"/>
+      <c r="H10" s="110" t="n"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="110" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="110" t="n">
+        <v>26.46</v>
+      </c>
+      <c r="C11" s="108" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" s="109" t="n">
+        <v>70.98999999999999</v>
+      </c>
+      <c r="E11" s="110" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="110" t="n"/>
+      <c r="H11" s="110" t="n"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="110" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="110" t="n">
+        <v>155.66</v>
+      </c>
+      <c r="C12" s="108" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D12" s="109" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="E12" s="110" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="110" t="n"/>
+      <c r="H12" s="110" t="n"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="110" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="C13" s="108" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="D13" s="109" t="n">
+        <v>77.11</v>
+      </c>
+      <c r="E13" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="110" t="n"/>
+      <c r="H13" s="110" t="n"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="110" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="110" t="n">
+        <v>135.87</v>
+      </c>
+      <c r="C14" s="108" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D14" s="110" t="n">
+        <v>56.27</v>
+      </c>
+      <c r="E14" s="110" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="110" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="110" t="n"/>
+      <c r="H14" s="110" t="n"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="110" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="110" t="n">
+        <v>56.44</v>
+      </c>
+      <c r="C15" s="108" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="D15" s="109" t="n">
+        <v>78.56</v>
+      </c>
+      <c r="E15" s="110" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="110" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="110" t="n"/>
+      <c r="H15" s="110" t="n"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="110" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="110" t="n">
+        <v>56.05</v>
+      </c>
+      <c r="C16" s="108" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D16" s="108" t="n">
+        <v>27.05</v>
+      </c>
+      <c r="E16" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="107" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="C8" s="108" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="D8" s="107" t="n">
-        <v>67.12</v>
-      </c>
-      <c r="E8" s="107" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="107" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="107" t="n"/>
-      <c r="H8" s="107" t="n"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="107" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="107" t="n">
-        <v>29.35</v>
-      </c>
-      <c r="C9" s="108" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="D9" s="107" t="n">
-        <v>68.43000000000001</v>
-      </c>
-      <c r="E9" s="107" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="107" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="107" t="n"/>
-      <c r="H9" s="107" t="n"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="107" t="n"/>
-      <c r="B10" s="107" t="n"/>
-      <c r="C10" s="107" t="n"/>
-      <c r="D10" s="107" t="n"/>
-      <c r="E10" s="107" t="n"/>
-      <c r="F10" s="107" t="n"/>
-      <c r="G10" s="107" t="n"/>
-      <c r="H10" s="107" t="n"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="107" t="n"/>
-      <c r="B11" s="107" t="n"/>
-      <c r="C11" s="107" t="n"/>
-      <c r="D11" s="107" t="n"/>
-      <c r="E11" s="107" t="n"/>
-      <c r="F11" s="107" t="n"/>
-      <c r="G11" s="107" t="n"/>
-      <c r="H11" s="107" t="n"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="107" t="n"/>
-      <c r="B12" s="107" t="n"/>
-      <c r="C12" s="107" t="n"/>
-      <c r="D12" s="107" t="n"/>
-      <c r="E12" s="107" t="n"/>
-      <c r="F12" s="107" t="n"/>
-      <c r="G12" s="107" t="n"/>
-      <c r="H12" s="107" t="n"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="107" t="n"/>
-      <c r="B13" s="107" t="n"/>
-      <c r="C13" s="107" t="n"/>
-      <c r="D13" s="107" t="n"/>
-      <c r="E13" s="107" t="n"/>
-      <c r="F13" s="107" t="n"/>
-      <c r="G13" s="107" t="n"/>
-      <c r="H13" s="107" t="n"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="107" t="n"/>
-      <c r="B14" s="107" t="n"/>
-      <c r="C14" s="107" t="n"/>
-      <c r="D14" s="107" t="n"/>
-      <c r="E14" s="107" t="n"/>
-      <c r="F14" s="107" t="n"/>
-      <c r="G14" s="107" t="n"/>
-      <c r="H14" s="107" t="n"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="107" t="n"/>
-      <c r="B15" s="107" t="n"/>
-      <c r="C15" s="107" t="n"/>
-      <c r="D15" s="107" t="n"/>
-      <c r="E15" s="107" t="n"/>
-      <c r="F15" s="107" t="n"/>
-      <c r="G15" s="107" t="n"/>
-      <c r="H15" s="107" t="n"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="107" t="n"/>
-      <c r="B16" s="107" t="n"/>
-      <c r="C16" s="107" t="n"/>
-      <c r="D16" s="107" t="n"/>
-      <c r="E16" s="107" t="n"/>
-      <c r="F16" s="107" t="n"/>
-      <c r="G16" s="107" t="n"/>
-      <c r="H16" s="107" t="n"/>
+      <c r="F16" s="110" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="110" t="n"/>
+      <c r="H16" s="110" t="n"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="107" t="n"/>
-      <c r="B17" s="107" t="n"/>
-      <c r="C17" s="107" t="n"/>
-      <c r="D17" s="107" t="n"/>
-      <c r="E17" s="107" t="n"/>
-      <c r="F17" s="107" t="n"/>
-      <c r="G17" s="107" t="n"/>
-      <c r="H17" s="107" t="n"/>
+      <c r="A17" s="110" t="n"/>
+      <c r="B17" s="110" t="n"/>
+      <c r="C17" s="110" t="n"/>
+      <c r="D17" s="110" t="n"/>
+      <c r="E17" s="110" t="n"/>
+      <c r="F17" s="110" t="n"/>
+      <c r="G17" s="110" t="n"/>
+      <c r="H17" s="110" t="n"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="107" t="n"/>
-      <c r="B18" s="107" t="n"/>
-      <c r="C18" s="107" t="n"/>
-      <c r="D18" s="107" t="n"/>
-      <c r="E18" s="107" t="n"/>
-      <c r="F18" s="107" t="n"/>
-      <c r="G18" s="107" t="n"/>
-      <c r="H18" s="107" t="n"/>
+      <c r="A18" s="110" t="n"/>
+      <c r="B18" s="110" t="n"/>
+      <c r="C18" s="110" t="n"/>
+      <c r="D18" s="110" t="n"/>
+      <c r="E18" s="110" t="n"/>
+      <c r="F18" s="110" t="n"/>
+      <c r="G18" s="110" t="n"/>
+      <c r="H18" s="110" t="n"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="107" t="n"/>
-      <c r="B19" s="107" t="n"/>
-      <c r="C19" s="107" t="n"/>
-      <c r="D19" s="107" t="n"/>
-      <c r="E19" s="107" t="n"/>
-      <c r="F19" s="107" t="n"/>
-      <c r="G19" s="107" t="n"/>
-      <c r="H19" s="107" t="n"/>
+      <c r="A19" s="110" t="n"/>
+      <c r="B19" s="110" t="n"/>
+      <c r="C19" s="110" t="n"/>
+      <c r="D19" s="110" t="n"/>
+      <c r="E19" s="110" t="n"/>
+      <c r="F19" s="110" t="n"/>
+      <c r="G19" s="110" t="n"/>
+      <c r="H19" s="110" t="n"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="107" t="n"/>
-      <c r="B20" s="107" t="n"/>
-      <c r="C20" s="107" t="n"/>
-      <c r="D20" s="107" t="n"/>
-      <c r="E20" s="107" t="n"/>
-      <c r="F20" s="107" t="n"/>
-      <c r="G20" s="107" t="n"/>
-      <c r="H20" s="107" t="n"/>
+      <c r="A20" s="110" t="n"/>
+      <c r="B20" s="110" t="n"/>
+      <c r="C20" s="110" t="n"/>
+      <c r="D20" s="110" t="n"/>
+      <c r="E20" s="110" t="n"/>
+      <c r="F20" s="110" t="n"/>
+      <c r="G20" s="110" t="n"/>
+      <c r="H20" s="110" t="n"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="107" t="n"/>
-      <c r="B21" s="107" t="n"/>
-      <c r="C21" s="107" t="n"/>
-      <c r="D21" s="107" t="n"/>
-      <c r="E21" s="107" t="n"/>
-      <c r="F21" s="107" t="n"/>
-      <c r="G21" s="107" t="n"/>
-      <c r="H21" s="107" t="n"/>
+      <c r="A21" s="110" t="n"/>
+      <c r="B21" s="110" t="n"/>
+      <c r="C21" s="110" t="n"/>
+      <c r="D21" s="110" t="n"/>
+      <c r="E21" s="110" t="n"/>
+      <c r="F21" s="110" t="n"/>
+      <c r="G21" s="110" t="n"/>
+      <c r="H21" s="110" t="n"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="107" t="n"/>
-      <c r="B22" s="107" t="n"/>
-      <c r="C22" s="107" t="n"/>
-      <c r="D22" s="107" t="n"/>
-      <c r="E22" s="107" t="n"/>
-      <c r="F22" s="107" t="n"/>
-      <c r="G22" s="107" t="n"/>
-      <c r="H22" s="107" t="n"/>
+      <c r="A22" s="110" t="n"/>
+      <c r="B22" s="110" t="n"/>
+      <c r="C22" s="110" t="n"/>
+      <c r="D22" s="110" t="n"/>
+      <c r="E22" s="110" t="n"/>
+      <c r="F22" s="110" t="n"/>
+      <c r="G22" s="110" t="n"/>
+      <c r="H22" s="110" t="n"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="107" t="n"/>
-      <c r="B23" s="107" t="n"/>
-      <c r="C23" s="107" t="n"/>
-      <c r="D23" s="107" t="n"/>
-      <c r="E23" s="107" t="n"/>
-      <c r="F23" s="107" t="n"/>
-      <c r="G23" s="107" t="n"/>
-      <c r="H23" s="107" t="n"/>
+      <c r="A23" s="110" t="n"/>
+      <c r="B23" s="110" t="n"/>
+      <c r="C23" s="110" t="n"/>
+      <c r="D23" s="110" t="n"/>
+      <c r="E23" s="110" t="n"/>
+      <c r="F23" s="110" t="n"/>
+      <c r="G23" s="110" t="n"/>
+      <c r="H23" s="110" t="n"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="107" t="n"/>
-      <c r="B24" s="107" t="n"/>
-      <c r="C24" s="107" t="n"/>
-      <c r="D24" s="107" t="n"/>
-      <c r="E24" s="107" t="n"/>
-      <c r="F24" s="107" t="n"/>
-      <c r="G24" s="107" t="n"/>
-      <c r="H24" s="107" t="n"/>
+      <c r="A24" s="110" t="n"/>
+      <c r="B24" s="110" t="n"/>
+      <c r="C24" s="110" t="n"/>
+      <c r="D24" s="110" t="n"/>
+      <c r="E24" s="110" t="n"/>
+      <c r="F24" s="110" t="n"/>
+      <c r="G24" s="110" t="n"/>
+      <c r="H24" s="110" t="n"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="107" t="n"/>
-      <c r="B25" s="107" t="n"/>
-      <c r="C25" s="107" t="n"/>
-      <c r="D25" s="107" t="n"/>
-      <c r="E25" s="107" t="n"/>
-      <c r="F25" s="107" t="n"/>
-      <c r="G25" s="107" t="n"/>
-      <c r="H25" s="107" t="n"/>
+      <c r="A25" s="110" t="n"/>
+      <c r="B25" s="110" t="n"/>
+      <c r="C25" s="110" t="n"/>
+      <c r="D25" s="110" t="n"/>
+      <c r="E25" s="110" t="n"/>
+      <c r="F25" s="110" t="n"/>
+      <c r="G25" s="110" t="n"/>
+      <c r="H25" s="110" t="n"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="107" t="n"/>
-      <c r="B26" s="107" t="n"/>
-      <c r="C26" s="107" t="n"/>
-      <c r="D26" s="107" t="n"/>
-      <c r="E26" s="107" t="n"/>
-      <c r="F26" s="107" t="n"/>
-      <c r="G26" s="107" t="n"/>
-      <c r="H26" s="107" t="n"/>
+      <c r="A26" s="110" t="n"/>
+      <c r="B26" s="110" t="n"/>
+      <c r="C26" s="110" t="n"/>
+      <c r="D26" s="110" t="n"/>
+      <c r="E26" s="110" t="n"/>
+      <c r="F26" s="110" t="n"/>
+      <c r="G26" s="110" t="n"/>
+      <c r="H26" s="110" t="n"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="107" t="n"/>
-      <c r="B27" s="107" t="n"/>
-      <c r="C27" s="107" t="n"/>
-      <c r="D27" s="107" t="n"/>
-      <c r="E27" s="107" t="n"/>
-      <c r="F27" s="107" t="n"/>
-      <c r="G27" s="107" t="n"/>
-      <c r="H27" s="107" t="n"/>
+      <c r="A27" s="110" t="n"/>
+      <c r="B27" s="110" t="n"/>
+      <c r="C27" s="110" t="n"/>
+      <c r="D27" s="110" t="n"/>
+      <c r="E27" s="110" t="n"/>
+      <c r="F27" s="110" t="n"/>
+      <c r="G27" s="110" t="n"/>
+      <c r="H27" s="110" t="n"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="107" t="n"/>
-      <c r="B28" s="107" t="n"/>
-      <c r="C28" s="107" t="n"/>
-      <c r="D28" s="107" t="n"/>
-      <c r="E28" s="107" t="n"/>
-      <c r="F28" s="107" t="n"/>
-      <c r="G28" s="107" t="n"/>
-      <c r="H28" s="107" t="n"/>
+      <c r="A28" s="110" t="n"/>
+      <c r="B28" s="110" t="n"/>
+      <c r="C28" s="110" t="n"/>
+      <c r="D28" s="110" t="n"/>
+      <c r="E28" s="110" t="n"/>
+      <c r="F28" s="110" t="n"/>
+      <c r="G28" s="110" t="n"/>
+      <c r="H28" s="110" t="n"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="107" t="n"/>
-      <c r="B29" s="107" t="n"/>
-      <c r="C29" s="107" t="n"/>
-      <c r="D29" s="107" t="n"/>
-      <c r="E29" s="107" t="n"/>
-      <c r="F29" s="107" t="n"/>
-      <c r="G29" s="107" t="n"/>
-      <c r="H29" s="107" t="n"/>
+      <c r="A29" s="110" t="n"/>
+      <c r="B29" s="110" t="n"/>
+      <c r="C29" s="110" t="n"/>
+      <c r="D29" s="110" t="n"/>
+      <c r="E29" s="110" t="n"/>
+      <c r="F29" s="110" t="n"/>
+      <c r="G29" s="110" t="n"/>
+      <c r="H29" s="110" t="n"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="107" t="n"/>
-      <c r="B30" s="107" t="n"/>
-      <c r="C30" s="107" t="n"/>
-      <c r="D30" s="107" t="n"/>
-      <c r="E30" s="107" t="n"/>
-      <c r="F30" s="107" t="n"/>
-      <c r="G30" s="107" t="n"/>
-      <c r="H30" s="107" t="n"/>
+      <c r="A30" s="110" t="n"/>
+      <c r="B30" s="110" t="n"/>
+      <c r="C30" s="110" t="n"/>
+      <c r="D30" s="110" t="n"/>
+      <c r="E30" s="110" t="n"/>
+      <c r="F30" s="110" t="n"/>
+      <c r="G30" s="110" t="n"/>
+      <c r="H30" s="110" t="n"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="107" t="n"/>
-      <c r="B31" s="107" t="n"/>
-      <c r="C31" s="107" t="n"/>
-      <c r="D31" s="107" t="n"/>
-      <c r="E31" s="107" t="n"/>
-      <c r="F31" s="107" t="n"/>
-      <c r="G31" s="107" t="n"/>
-      <c r="H31" s="107" t="n"/>
+      <c r="A31" s="110" t="n"/>
+      <c r="B31" s="110" t="n"/>
+      <c r="C31" s="110" t="n"/>
+      <c r="D31" s="110" t="n"/>
+      <c r="E31" s="110" t="n"/>
+      <c r="F31" s="110" t="n"/>
+      <c r="G31" s="110" t="n"/>
+      <c r="H31" s="110" t="n"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="107" t="n"/>
-      <c r="B32" s="107" t="n"/>
-      <c r="C32" s="107" t="n"/>
-      <c r="D32" s="107" t="n"/>
-      <c r="E32" s="107" t="n"/>
-      <c r="F32" s="107" t="n"/>
-      <c r="G32" s="107" t="n"/>
-      <c r="H32" s="107" t="n"/>
+      <c r="A32" s="110" t="n"/>
+      <c r="B32" s="110" t="n"/>
+      <c r="C32" s="110" t="n"/>
+      <c r="D32" s="110" t="n"/>
+      <c r="E32" s="110" t="n"/>
+      <c r="F32" s="110" t="n"/>
+      <c r="G32" s="110" t="n"/>
+      <c r="H32" s="110" t="n"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="107" t="n"/>
-      <c r="B33" s="107" t="n"/>
-      <c r="C33" s="107" t="n"/>
-      <c r="D33" s="107" t="n"/>
-      <c r="E33" s="107" t="n"/>
-      <c r="F33" s="107" t="n"/>
-      <c r="G33" s="107" t="n"/>
-      <c r="H33" s="107" t="n"/>
+      <c r="A33" s="110" t="n"/>
+      <c r="B33" s="110" t="n"/>
+      <c r="C33" s="110" t="n"/>
+      <c r="D33" s="110" t="n"/>
+      <c r="E33" s="110" t="n"/>
+      <c r="F33" s="110" t="n"/>
+      <c r="G33" s="110" t="n"/>
+      <c r="H33" s="110" t="n"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="107" t="n"/>
-      <c r="B34" s="107" t="n"/>
-      <c r="C34" s="107" t="n"/>
-      <c r="D34" s="107" t="n"/>
-      <c r="E34" s="107" t="n"/>
-      <c r="F34" s="107" t="n"/>
-      <c r="G34" s="107" t="n"/>
-      <c r="H34" s="107" t="n"/>
+      <c r="A34" s="110" t="n"/>
+      <c r="B34" s="110" t="n"/>
+      <c r="C34" s="110" t="n"/>
+      <c r="D34" s="110" t="n"/>
+      <c r="E34" s="110" t="n"/>
+      <c r="F34" s="110" t="n"/>
+      <c r="G34" s="110" t="n"/>
+      <c r="H34" s="110" t="n"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="107" t="n"/>
-      <c r="B35" s="107" t="n"/>
-      <c r="C35" s="107" t="n"/>
-      <c r="D35" s="107" t="n"/>
-      <c r="E35" s="107" t="n"/>
-      <c r="F35" s="107" t="n"/>
-      <c r="G35" s="107" t="n"/>
-      <c r="H35" s="107" t="n"/>
+      <c r="A35" s="110" t="n"/>
+      <c r="B35" s="110" t="n"/>
+      <c r="C35" s="110" t="n"/>
+      <c r="D35" s="110" t="n"/>
+      <c r="E35" s="110" t="n"/>
+      <c r="F35" s="110" t="n"/>
+      <c r="G35" s="110" t="n"/>
+      <c r="H35" s="110" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -1856,7 +2983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
@@ -1864,60 +2991,185 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
+      <c r="C15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1931,7 +3183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
@@ -1939,60 +3191,185 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>72</v>
+      <c r="C15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2006,7 +3383,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
@@ -2014,60 +3391,185 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>78</v>
+      <c r="C15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2081,7 +3583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
@@ -2089,60 +3591,185 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>84</v>
+      <c r="C15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2156,7 +3783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
@@ -2164,60 +3791,185 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>90</v>
+      <c r="C15" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -2231,7 +3983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
@@ -2239,60 +3991,185 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>96</v>
+      <c r="C15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -2306,7 +4183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
@@ -2314,60 +4191,185 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>101</v>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -2381,7 +4383,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
@@ -2389,60 +4391,185 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>349</v>
+      </c>
+      <c r="C6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>107</v>
+      <c r="C15" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -2456,7 +4583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
@@ -2464,60 +4591,185 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>113</v>
+      <c r="C15" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -2531,7 +4783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
@@ -2539,60 +4791,185 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>119</v>
+      <c r="C15" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -2638,15 +5015,15 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B2" t="n">
         <v>33.1</v>
@@ -2658,23 +5035,23 @@
         <v>30.7</v>
       </c>
       <c r="E2" s="80" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="G2" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="109" t="n">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="H2" s="108" t="n">
+        <v>2.72</v>
       </c>
       <c r="I2" s="88" t="n"/>
       <c r="J2" s="79" t="n"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B3" t="n">
         <v>20.2</v>
@@ -2686,22 +5063,22 @@
         <v>43.55</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="109" t="n">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="H3" s="108" t="n">
+        <v>2.72</v>
       </c>
       <c r="I3" s="88" t="n"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B4" t="n">
         <v>55.57</v>
@@ -2713,22 +5090,22 @@
         <v>42.81</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="109" t="n">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="H4" s="108" t="n">
+        <v>0.79</v>
       </c>
       <c r="I4" s="89" t="n"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B5" t="n">
         <v>23.07</v>
@@ -2740,21 +5117,21 @@
         <v>37.91</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="109" t="n">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="H5" s="108" t="n">
+        <v>2.73</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B6" t="n">
         <v>7.84</v>
@@ -2766,21 +5143,21 @@
         <v>67.12</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="109" t="n">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="H6" s="108" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B7" t="n">
         <v>29.35</v>
@@ -2792,74 +5169,357 @@
         <v>68.43000000000001</v>
       </c>
       <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="108" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="C8" s="108" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="D8" s="109" t="n">
+        <v>78.26000000000001</v>
+      </c>
+      <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="n">
+        <v>18.39</v>
+      </c>
+      <c r="C9" s="108" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="D9" s="110" t="n">
+        <v>60.72</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="88" t="n"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="C10" s="108" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="D10" s="110" t="n">
+        <v>63.94</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="C11" s="108" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="D11" s="110" t="n">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n">
+        <v>31.77</v>
+      </c>
+      <c r="C12" s="108" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="D12" s="110" t="n">
+        <v>69.45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
         <v>20</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="C13" s="108" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D13" s="110" t="n">
+        <v>63.83</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="n">
+        <v>17.76</v>
+      </c>
+      <c r="C14" s="108" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="D14" s="110" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="109" t="n">
+      <c r="G14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="109" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="C8" s="94" t="n"/>
-      <c r="H8" s="105" t="n"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="C9" s="94" t="n"/>
-      <c r="D9" s="87" t="n"/>
-      <c r="G9" s="82" t="n"/>
-      <c r="H9" s="106" t="n"/>
-      <c r="I9" s="88" t="n"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="C10" s="100" t="n"/>
-      <c r="H10" s="106" t="n"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="C11" s="102" t="n"/>
-      <c r="H11" s="106" t="n"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="C12" s="94" t="n"/>
-      <c r="H12" s="105" t="n"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="C13" s="100" t="n"/>
-      <c r="H13" s="105" t="n"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="C14" s="94" t="n"/>
-      <c r="H14" s="105" t="n"/>
-    </row>
     <row r="15" spans="1:10">
-      <c r="C15" s="94" t="n"/>
-      <c r="H15" s="105" t="n"/>
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="n">
+        <v>26.46</v>
+      </c>
+      <c r="C15" s="108" t="n">
+        <v>8</v>
+      </c>
+      <c r="D15" s="109" t="n">
+        <v>70.98999999999999</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="C16" s="105" t="n"/>
-      <c r="H16" s="106" t="n"/>
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="n">
+        <v>155.66</v>
+      </c>
+      <c r="C16" s="108" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D16" s="109" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="C17" s="94" t="n"/>
-      <c r="H17" s="105" t="n"/>
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="C17" s="108" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="D17" s="109" t="n">
+        <v>77.11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="C18" s="94" t="n"/>
-      <c r="D18" s="86" t="n"/>
-      <c r="H18" s="106" t="n"/>
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="n">
+        <v>135.87</v>
+      </c>
+      <c r="C18" s="108" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D18" s="110" t="n">
+        <v>56.27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="109" t="n">
+        <v>0</v>
+      </c>
       <c r="I18" s="88" t="n"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="C19" s="94" t="n"/>
-      <c r="H19" s="105" t="n"/>
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="n">
+        <v>56.44</v>
+      </c>
+      <c r="C19" s="108" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="D19" s="109" t="n">
+        <v>78.56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="C20" s="94" t="n"/>
-      <c r="H20" s="106" t="n"/>
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="n">
+        <v>56.05</v>
+      </c>
+      <c r="C20" s="108" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D20" s="108" t="n">
+        <v>27.05</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:10">
       <c r="C21" s="94" t="n"/>
@@ -7343,7 +10003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
@@ -7351,60 +10011,185 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>125</v>
+      <c r="C15" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -7418,7 +10203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7426,60 +10211,185 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>130</v>
+      <c r="C15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -7493,7 +10403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7501,60 +10411,185 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>449</v>
+      </c>
+      <c r="C7" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>136</v>
+      <c r="C15" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -7568,7 +10603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7576,60 +10611,185 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>470</v>
+      </c>
+      <c r="C7" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>141</v>
+      <c r="C15" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -7643,7 +10803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7651,60 +10811,185 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>143</v>
+      <c r="C15" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -7728,20 +11013,25 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="11" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B2" s="108" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="97" t="n"/>
+        <v>54</v>
+      </c>
+      <c r="C2" s="108" t="s">
+        <v>55</v>
+      </c>
       <c r="D2" s="99" t="n"/>
       <c r="E2" s="103" t="n"/>
       <c r="F2" s="106" t="n"/>
@@ -7766,12 +11056,14 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="11" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B3" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="97" t="n"/>
+        <v>56</v>
+      </c>
+      <c r="C3" s="108" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" s="99" t="n"/>
       <c r="E3" s="103" t="n"/>
       <c r="F3" s="105" t="n"/>
@@ -7796,12 +11088,14 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B4" s="108" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="97" t="n"/>
+        <v>58</v>
+      </c>
+      <c r="C4" s="108" t="s">
+        <v>59</v>
+      </c>
       <c r="D4" s="99" t="n"/>
       <c r="E4" s="103" t="n"/>
       <c r="F4" s="105" t="n"/>
@@ -7826,12 +11120,14 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="11" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B5" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="97" t="n"/>
+        <v>60</v>
+      </c>
+      <c r="C5" s="108" t="s">
+        <v>61</v>
+      </c>
       <c r="D5" s="99" t="n"/>
       <c r="E5" s="103" t="n"/>
       <c r="F5" s="105" t="n"/>
@@ -7856,12 +11152,14 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B6" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="97" t="n"/>
+        <v>62</v>
+      </c>
+      <c r="C6" s="108" t="s">
+        <v>63</v>
+      </c>
       <c r="D6" s="99" t="n"/>
       <c r="E6" s="103" t="n"/>
       <c r="F6" s="105" t="n"/>
@@ -7886,12 +11184,14 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B7" s="108" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="97" t="n"/>
+        <v>64</v>
+      </c>
+      <c r="C7" s="108" t="s">
+        <v>65</v>
+      </c>
       <c r="D7" s="99" t="n"/>
       <c r="E7" s="103" t="n"/>
       <c r="F7" s="105" t="n"/>
@@ -7915,8 +11215,13 @@
       <c r="X7" s="70" t="n"/>
     </row>
     <row r="8" spans="1:24">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
       <c r="B8" s="94" t="n"/>
-      <c r="C8" s="96" t="n"/>
+      <c r="C8" s="108" t="s">
+        <v>66</v>
+      </c>
       <c r="D8" s="100" t="n"/>
       <c r="E8" s="102" t="n"/>
       <c r="F8" s="106" t="n"/>
@@ -7940,8 +11245,13 @@
       <c r="X8" s="70" t="n"/>
     </row>
     <row r="9" spans="1:24">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
       <c r="B9" s="94" t="n"/>
-      <c r="C9" s="97" t="n"/>
+      <c r="C9" s="108" t="s">
+        <v>67</v>
+      </c>
       <c r="D9" s="100" t="n"/>
       <c r="E9" s="102" t="n"/>
       <c r="F9" s="105" t="n"/>
@@ -7965,8 +11275,13 @@
       <c r="X9" s="71" t="n"/>
     </row>
     <row r="10" spans="1:24">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
       <c r="B10" s="94" t="n"/>
-      <c r="C10" s="97" t="n"/>
+      <c r="C10" s="108" t="s">
+        <v>68</v>
+      </c>
       <c r="D10" s="99" t="n"/>
       <c r="E10" s="103" t="n"/>
       <c r="F10" s="106" t="n"/>
@@ -7990,8 +11305,13 @@
       <c r="X10" s="71" t="n"/>
     </row>
     <row r="11" spans="1:24">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
       <c r="B11" s="94" t="n"/>
-      <c r="C11" s="97" t="n"/>
+      <c r="C11" s="108" t="s">
+        <v>69</v>
+      </c>
       <c r="D11" s="99" t="n"/>
       <c r="E11" s="103" t="n"/>
       <c r="F11" s="105" t="n"/>
@@ -8015,8 +11335,13 @@
       <c r="X11" s="71" t="n"/>
     </row>
     <row r="12" spans="1:24">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
       <c r="B12" s="94" t="n"/>
-      <c r="C12" s="96" t="n"/>
+      <c r="C12" s="108" t="s">
+        <v>70</v>
+      </c>
       <c r="D12" s="99" t="n"/>
       <c r="E12" s="103" t="n"/>
       <c r="F12" s="105" t="n"/>
@@ -8040,8 +11365,13 @@
       <c r="X12" s="70" t="n"/>
     </row>
     <row r="13" spans="1:24">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="94" t="n"/>
-      <c r="C13" s="97" t="n"/>
+      <c r="C13" s="108" t="s">
+        <v>71</v>
+      </c>
       <c r="D13" s="100" t="n"/>
       <c r="E13" s="102" t="n"/>
       <c r="F13" s="105" t="n"/>
@@ -8065,8 +11395,13 @@
       <c r="X13" s="71" t="n"/>
     </row>
     <row r="14" spans="1:24">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
       <c r="B14" s="94" t="n"/>
-      <c r="C14" s="97" t="n"/>
+      <c r="C14" s="108" t="s">
+        <v>72</v>
+      </c>
       <c r="D14" s="99" t="n"/>
       <c r="E14" s="103" t="n"/>
       <c r="F14" s="105" t="n"/>
@@ -8090,8 +11425,13 @@
       <c r="X14" s="71" t="n"/>
     </row>
     <row r="15" spans="1:24">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
       <c r="B15" s="94" t="n"/>
-      <c r="C15" s="96" t="n"/>
+      <c r="C15" s="108" t="s">
+        <v>73</v>
+      </c>
       <c r="D15" s="100" t="n"/>
       <c r="E15" s="102" t="n"/>
       <c r="F15" s="105" t="n"/>
@@ -8115,8 +11455,13 @@
       <c r="X15" s="71" t="n"/>
     </row>
     <row r="16" spans="1:24">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
       <c r="B16" s="94" t="n"/>
-      <c r="C16" s="97" t="n"/>
+      <c r="C16" s="108" t="s">
+        <v>74</v>
+      </c>
       <c r="D16" s="99" t="n"/>
       <c r="E16" s="103" t="n"/>
       <c r="F16" s="106" t="n"/>
@@ -8140,8 +11485,13 @@
       <c r="X16" s="70" t="n"/>
     </row>
     <row r="17" spans="1:24">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
       <c r="B17" s="94" t="n"/>
-      <c r="C17" s="97" t="n"/>
+      <c r="C17" s="108" t="s">
+        <v>75</v>
+      </c>
       <c r="D17" s="99" t="n"/>
       <c r="E17" s="103" t="n"/>
       <c r="F17" s="105" t="n"/>
@@ -8165,8 +11515,13 @@
       <c r="X17" s="70" t="n"/>
     </row>
     <row r="18" spans="1:24">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
       <c r="B18" s="94" t="n"/>
-      <c r="C18" s="97" t="n"/>
+      <c r="C18" s="108" t="s">
+        <v>76</v>
+      </c>
       <c r="D18" s="99" t="n"/>
       <c r="E18" s="103" t="n"/>
       <c r="F18" s="105" t="n"/>
@@ -8190,8 +11545,13 @@
       <c r="X18" s="71" t="n"/>
     </row>
     <row r="19" spans="1:24">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
       <c r="B19" s="90" t="n"/>
-      <c r="C19" s="96" t="n"/>
+      <c r="C19" s="108" t="s">
+        <v>77</v>
+      </c>
       <c r="D19" s="100" t="n"/>
       <c r="E19" s="102" t="n"/>
       <c r="F19" s="105" t="n"/>
@@ -8215,8 +11575,13 @@
       <c r="X19" s="71" t="n"/>
     </row>
     <row r="20" spans="1:24">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
       <c r="B20" s="90" t="n"/>
-      <c r="C20" s="97" t="n"/>
+      <c r="C20" s="108" t="s">
+        <v>78</v>
+      </c>
       <c r="D20" s="99" t="n"/>
       <c r="E20" s="103" t="n"/>
       <c r="F20" s="105" t="n"/>
@@ -8817,20 +12182,25 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="11" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="85" t="n"/>
+        <v>79</v>
+      </c>
+      <c r="C2" s="85" t="s">
+        <v>79</v>
+      </c>
       <c r="D2" s="85" t="n"/>
       <c r="E2" s="77" t="n"/>
       <c r="F2" s="47" t="n"/>
@@ -8855,12 +12225,14 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="11" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B3" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="85" t="n"/>
+        <v>80</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>80</v>
+      </c>
       <c r="D3" s="85" t="n"/>
       <c r="E3" s="77" t="n"/>
       <c r="F3" s="47" t="n"/>
@@ -8885,12 +12257,14 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B4" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="85" t="n"/>
+        <v>81</v>
+      </c>
+      <c r="C4" s="85" t="s">
+        <v>81</v>
+      </c>
       <c r="D4" s="85" t="n"/>
       <c r="E4" s="77" t="n"/>
       <c r="F4" s="47" t="n"/>
@@ -8915,12 +12289,14 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="11" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="85" t="n"/>
+        <v>82</v>
+      </c>
+      <c r="C5" s="85" t="s">
+        <v>82</v>
+      </c>
       <c r="D5" s="85" t="n"/>
       <c r="E5" s="77" t="n"/>
       <c r="F5" s="46" t="n"/>
@@ -8945,12 +12321,14 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B6" s="86" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="85" t="n"/>
+        <v>83</v>
+      </c>
+      <c r="C6" s="85" t="s">
+        <v>83</v>
+      </c>
       <c r="D6" s="85" t="n"/>
       <c r="E6" s="76" t="n"/>
       <c r="F6" s="47" t="n"/>
@@ -8975,12 +12353,14 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B7" s="86" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="85" t="n"/>
+        <v>84</v>
+      </c>
+      <c r="C7" s="85" t="s">
+        <v>84</v>
+      </c>
       <c r="D7" s="85" t="n"/>
       <c r="E7" s="76" t="n"/>
       <c r="F7" s="46" t="n"/>
@@ -9004,8 +12384,13 @@
       <c r="X7" s="70" t="n"/>
     </row>
     <row r="8" spans="1:24">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
       <c r="B8" s="86" t="n"/>
-      <c r="C8" s="85" t="n"/>
+      <c r="C8" s="85" t="s">
+        <v>85</v>
+      </c>
       <c r="D8" s="85" t="n"/>
       <c r="E8" s="77" t="n"/>
       <c r="F8" s="47" t="n"/>
@@ -9029,8 +12414,13 @@
       <c r="X8" s="71" t="n"/>
     </row>
     <row r="9" spans="1:24">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
       <c r="B9" s="86" t="n"/>
-      <c r="C9" s="85" t="n"/>
+      <c r="C9" s="85" t="s">
+        <v>86</v>
+      </c>
       <c r="D9" s="85" t="n"/>
       <c r="E9" s="76" t="n"/>
       <c r="F9" s="46" t="n"/>
@@ -9054,8 +12444,13 @@
       <c r="X9" s="70" t="n"/>
     </row>
     <row r="10" spans="1:24">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
       <c r="B10" s="86" t="n"/>
-      <c r="C10" s="85" t="n"/>
+      <c r="C10" s="85" t="s">
+        <v>87</v>
+      </c>
       <c r="D10" s="85" t="n"/>
       <c r="E10" s="77" t="n"/>
       <c r="F10" s="47" t="n"/>
@@ -9079,8 +12474,13 @@
       <c r="X10" s="71" t="n"/>
     </row>
     <row r="11" spans="1:24">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
       <c r="B11" s="86" t="n"/>
-      <c r="C11" s="85" t="n"/>
+      <c r="C11" s="85" t="s">
+        <v>88</v>
+      </c>
       <c r="D11" s="85" t="n"/>
       <c r="E11" s="76" t="n"/>
       <c r="F11" s="47" t="n"/>
@@ -9104,8 +12504,13 @@
       <c r="X11" s="71" t="n"/>
     </row>
     <row r="12" spans="1:24">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
       <c r="B12" s="86" t="n"/>
-      <c r="C12" s="85" t="n"/>
+      <c r="C12" s="85" t="s">
+        <v>89</v>
+      </c>
       <c r="D12" s="85" t="n"/>
       <c r="E12" s="76" t="n"/>
       <c r="F12" s="47" t="n"/>
@@ -9129,8 +12534,13 @@
       <c r="X12" s="71" t="n"/>
     </row>
     <row r="13" spans="1:24">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="86" t="n"/>
-      <c r="C13" s="85" t="n"/>
+      <c r="C13" s="85" t="s">
+        <v>90</v>
+      </c>
       <c r="D13" s="85" t="n"/>
       <c r="E13" s="76" t="n"/>
       <c r="F13" s="47" t="n"/>
@@ -9154,8 +12564,13 @@
       <c r="X13" s="71" t="n"/>
     </row>
     <row r="14" spans="1:24">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
       <c r="B14" s="86" t="n"/>
-      <c r="C14" s="85" t="n"/>
+      <c r="C14" s="85" t="s">
+        <v>91</v>
+      </c>
       <c r="D14" s="85" t="n"/>
       <c r="E14" s="77" t="n"/>
       <c r="F14" s="47" t="n"/>
@@ -9179,8 +12594,13 @@
       <c r="X14" s="71" t="n"/>
     </row>
     <row r="15" spans="1:24">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
       <c r="B15" s="86" t="n"/>
-      <c r="C15" s="85" t="n"/>
+      <c r="C15" s="85" t="s">
+        <v>92</v>
+      </c>
       <c r="D15" s="85" t="n"/>
       <c r="E15" s="76" t="n"/>
       <c r="F15" s="46" t="n"/>
@@ -9204,8 +12624,13 @@
       <c r="X15" s="70" t="n"/>
     </row>
     <row r="16" spans="1:24">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
       <c r="B16" s="86" t="n"/>
-      <c r="C16" s="85" t="n"/>
+      <c r="C16" s="85" t="s">
+        <v>93</v>
+      </c>
       <c r="D16" s="85" t="n"/>
       <c r="E16" s="76" t="n"/>
       <c r="F16" s="46" t="n"/>
@@ -9229,8 +12654,13 @@
       <c r="X16" s="70" t="n"/>
     </row>
     <row r="17" spans="1:24">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
       <c r="B17" s="86" t="n"/>
-      <c r="C17" s="85" t="n"/>
+      <c r="C17" s="85" t="s">
+        <v>94</v>
+      </c>
       <c r="D17" s="85" t="n"/>
       <c r="E17" s="77" t="n"/>
       <c r="F17" s="47" t="n"/>
@@ -9254,8 +12684,13 @@
       <c r="X17" s="71" t="n"/>
     </row>
     <row r="18" spans="1:24">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
       <c r="B18" s="86" t="n"/>
-      <c r="C18" s="85" t="n"/>
+      <c r="C18" s="85" t="s">
+        <v>95</v>
+      </c>
       <c r="D18" s="85" t="n"/>
       <c r="E18" s="76" t="n"/>
       <c r="F18" s="47" t="n"/>
@@ -9279,8 +12714,13 @@
       <c r="X18" s="71" t="n"/>
     </row>
     <row r="19" spans="1:24">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
       <c r="B19" s="86" t="n"/>
-      <c r="C19" s="85" t="n"/>
+      <c r="C19" s="85" t="s">
+        <v>96</v>
+      </c>
       <c r="D19" s="85" t="n"/>
       <c r="E19" s="77" t="n"/>
       <c r="F19" s="46" t="n"/>
@@ -9304,8 +12744,13 @@
       <c r="X19" s="70" t="n"/>
     </row>
     <row r="20" spans="1:24">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
       <c r="B20" s="86" t="n"/>
-      <c r="C20" s="85" t="n"/>
+      <c r="C20" s="85" t="s">
+        <v>97</v>
+      </c>
       <c r="D20" s="85" t="n"/>
       <c r="E20" s="77" t="n"/>
       <c r="F20" s="46" t="n"/>
@@ -9820,20 +13265,25 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="11" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B2" s="107" t="n">
         <v>30.7</v>
       </c>
-      <c r="C2" s="97" t="n"/>
+      <c r="C2" s="110" t="n">
+        <v>38.92</v>
+      </c>
       <c r="D2" s="99" t="n"/>
       <c r="E2" s="103" t="n"/>
       <c r="F2" s="105" t="n"/>
@@ -9858,12 +13308,14 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="11" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B3" s="107" t="n">
         <v>43.55</v>
       </c>
-      <c r="C3" s="95" t="n"/>
+      <c r="C3" s="110" t="n">
+        <v>48.93</v>
+      </c>
       <c r="D3" s="98" t="n"/>
       <c r="E3" s="101" t="n"/>
       <c r="F3" s="104" t="n"/>
@@ -9888,12 +13340,14 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B4" s="107" t="n">
         <v>42.81</v>
       </c>
-      <c r="C4" s="95" t="n"/>
+      <c r="C4" s="110" t="n">
+        <v>45.61</v>
+      </c>
       <c r="D4" s="98" t="n"/>
       <c r="E4" s="101" t="n"/>
       <c r="F4" s="104" t="n"/>
@@ -9918,12 +13372,14 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="11" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B5" s="107" t="n">
         <v>37.91</v>
       </c>
-      <c r="C5" s="95" t="n"/>
+      <c r="C5" s="110" t="n">
+        <v>46.88</v>
+      </c>
       <c r="D5" s="98" t="n"/>
       <c r="E5" s="101" t="n"/>
       <c r="F5" s="104" t="n"/>
@@ -9948,12 +13404,14 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B6" s="107" t="n">
         <v>67.12</v>
       </c>
-      <c r="C6" s="95" t="n"/>
+      <c r="C6" s="110" t="n">
+        <v>69.03</v>
+      </c>
       <c r="D6" s="98" t="n"/>
       <c r="E6" s="101" t="n"/>
       <c r="F6" s="104" t="n"/>
@@ -9978,12 +13436,14 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B7" s="107" t="n">
         <v>68.43000000000001</v>
       </c>
-      <c r="C7" s="97" t="n"/>
+      <c r="C7" s="109" t="n">
+        <v>70.11</v>
+      </c>
       <c r="D7" s="98" t="n"/>
       <c r="E7" s="101" t="n"/>
       <c r="F7" s="104" t="n"/>
@@ -10007,8 +13467,13 @@
       <c r="X7" s="70" t="n"/>
     </row>
     <row r="8" spans="1:24">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
       <c r="B8" s="90" t="n"/>
-      <c r="C8" s="95" t="n"/>
+      <c r="C8" s="109" t="n">
+        <v>78.26000000000001</v>
+      </c>
       <c r="D8" s="98" t="n"/>
       <c r="E8" s="101" t="n"/>
       <c r="F8" s="105" t="n"/>
@@ -10032,8 +13497,13 @@
       <c r="X8" s="71" t="n"/>
     </row>
     <row r="9" spans="1:24">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
       <c r="B9" s="94" t="n"/>
-      <c r="C9" s="97" t="n"/>
+      <c r="C9" s="110" t="n">
+        <v>60.72</v>
+      </c>
       <c r="D9" s="99" t="n"/>
       <c r="E9" s="103" t="n"/>
       <c r="F9" s="104" t="n"/>
@@ -10057,8 +13527,13 @@
       <c r="X9" s="70" t="n"/>
     </row>
     <row r="10" spans="1:24">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
       <c r="B10" s="86" t="n"/>
-      <c r="C10" s="95" t="n"/>
+      <c r="C10" s="110" t="n">
+        <v>63.94</v>
+      </c>
       <c r="D10" s="98" t="n"/>
       <c r="E10" s="101" t="n"/>
       <c r="F10" s="104" t="n"/>
@@ -10082,8 +13557,13 @@
       <c r="X10" s="71" t="n"/>
     </row>
     <row r="11" spans="1:24">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
       <c r="B11" s="94" t="n"/>
-      <c r="C11" s="95" t="n"/>
+      <c r="C11" s="110" t="n">
+        <v>52</v>
+      </c>
       <c r="D11" s="98" t="n"/>
       <c r="E11" s="101" t="n"/>
       <c r="F11" s="104" t="n"/>
@@ -10107,8 +13587,13 @@
       <c r="X11" s="71" t="n"/>
     </row>
     <row r="12" spans="1:24">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
       <c r="B12" s="86" t="n"/>
-      <c r="C12" s="95" t="n"/>
+      <c r="C12" s="110" t="n">
+        <v>69.45</v>
+      </c>
       <c r="D12" s="98" t="n"/>
       <c r="E12" s="101" t="n"/>
       <c r="F12" s="104" t="n"/>
@@ -10132,8 +13617,13 @@
       <c r="X12" s="71" t="n"/>
     </row>
     <row r="13" spans="1:24">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="94" t="n"/>
-      <c r="C13" s="97" t="n"/>
+      <c r="C13" s="110" t="n">
+        <v>63.83</v>
+      </c>
       <c r="D13" s="99" t="n"/>
       <c r="E13" s="103" t="n"/>
       <c r="F13" s="105" t="n"/>
@@ -10157,8 +13647,13 @@
       <c r="X13" s="71" t="n"/>
     </row>
     <row r="14" spans="1:24">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
       <c r="B14" s="86" t="n"/>
-      <c r="C14" s="95" t="n"/>
+      <c r="C14" s="110" t="n">
+        <v>69.2</v>
+      </c>
       <c r="D14" s="98" t="n"/>
       <c r="E14" s="101" t="n"/>
       <c r="F14" s="104" t="n"/>
@@ -10182,8 +13677,13 @@
       <c r="X14" s="71" t="n"/>
     </row>
     <row r="15" spans="1:24">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
       <c r="B15" s="90" t="n"/>
-      <c r="C15" s="97" t="n"/>
+      <c r="C15" s="109" t="n">
+        <v>70.98999999999999</v>
+      </c>
       <c r="D15" s="99" t="n"/>
       <c r="E15" s="103" t="n"/>
       <c r="F15" s="104" t="n"/>
@@ -10207,8 +13707,13 @@
       <c r="X15" s="70" t="n"/>
     </row>
     <row r="16" spans="1:24">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
       <c r="B16" s="86" t="n"/>
-      <c r="C16" s="95" t="n"/>
+      <c r="C16" s="109" t="n">
+        <v>77.3</v>
+      </c>
       <c r="D16" s="98" t="n"/>
       <c r="E16" s="101" t="n"/>
       <c r="F16" s="104" t="n"/>
@@ -10232,8 +13737,13 @@
       <c r="X16" s="70" t="n"/>
     </row>
     <row r="17" spans="1:24">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
       <c r="B17" s="87" t="n"/>
-      <c r="C17" s="95" t="n"/>
+      <c r="C17" s="109" t="n">
+        <v>77.11</v>
+      </c>
       <c r="D17" s="98" t="n"/>
       <c r="E17" s="101" t="n"/>
       <c r="F17" s="104" t="n"/>
@@ -10257,8 +13767,13 @@
       <c r="X17" s="71" t="n"/>
     </row>
     <row r="18" spans="1:24">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
       <c r="B18" s="86" t="n"/>
-      <c r="C18" s="95" t="n"/>
+      <c r="C18" s="110" t="n">
+        <v>56.27</v>
+      </c>
       <c r="D18" s="98" t="n"/>
       <c r="E18" s="101" t="n"/>
       <c r="F18" s="104" t="n"/>
@@ -10282,8 +13797,13 @@
       <c r="X18" s="71" t="n"/>
     </row>
     <row r="19" spans="1:24">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
       <c r="B19" s="86" t="n"/>
-      <c r="C19" s="97" t="n"/>
+      <c r="C19" s="109" t="n">
+        <v>78.56</v>
+      </c>
       <c r="D19" s="99" t="n"/>
       <c r="E19" s="103" t="n"/>
       <c r="F19" s="104" t="n"/>
@@ -10307,8 +13827,13 @@
       <c r="X19" s="70" t="n"/>
     </row>
     <row r="20" spans="1:24">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
       <c r="B20" s="86" t="n"/>
-      <c r="C20" s="95" t="n"/>
+      <c r="C20" s="108" t="n">
+        <v>27.05</v>
+      </c>
       <c r="D20" s="98" t="n"/>
       <c r="E20" s="101" t="n"/>
       <c r="F20" s="104" t="n"/>
@@ -10885,7 +14410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="G26" sqref="G26"/>
@@ -10900,60 +14425,185 @@
     <col customWidth="1" max="6" min="6" width="18.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
+      <c r="C15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -10968,7 +14618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
@@ -10976,60 +14626,185 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
+      <c r="C15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -11043,7 +14818,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
@@ -11051,60 +14826,185 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
+      <c r="C15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -11118,7 +15018,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
@@ -11126,60 +15026,185 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
+      <c r="C15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
